--- a/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW15.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="AlphaFiberF-HW15.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="AlphaFiberF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1034,7 +1034,7 @@
         <v>1.013926577483699</v>
       </c>
       <c r="D15">
-        <v>0.964660601551828</v>
+        <v>0.9646606015518283</v>
       </c>
       <c r="E15">
         <v>0.9944618571817411</v>
@@ -1052,16 +1052,57 @@
         <v>0.9994440692609421</v>
       </c>
       <c r="J15">
-        <v>0.964660601551828</v>
+        <v>0.9646606015518283</v>
       </c>
       <c r="K15">
-        <v>0.9795612293667846</v>
+        <v>0.9795612293667847</v>
       </c>
       <c r="L15">
-        <v>0.9967439034252414</v>
+        <v>0.9967439034252417</v>
       </c>
       <c r="M15">
         <v>0.9902917547120765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.227435064709477</v>
+      </c>
+      <c r="D16">
+        <v>1.222548923474337</v>
+      </c>
+      <c r="E16">
+        <v>0.8672951964755753</v>
+      </c>
+      <c r="F16">
+        <v>1.227435064709477</v>
+      </c>
+      <c r="G16">
+        <v>1.00875899065177</v>
+      </c>
+      <c r="H16">
+        <v>0.936755875710869</v>
+      </c>
+      <c r="I16">
+        <v>0.9543713561677337</v>
+      </c>
+      <c r="J16">
+        <v>1.222548923474337</v>
+      </c>
+      <c r="K16">
+        <v>1.044922059974956</v>
+      </c>
+      <c r="L16">
+        <v>1.136178562342217</v>
+      </c>
+      <c r="M16">
+        <v>1.036194234531627</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.227435064709477</v>

--- a/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW15.xlsx
@@ -1037,7 +1037,7 @@
         <v>1.013926577483699</v>
       </c>
       <c r="D15">
-        <v>0.9646606015518283</v>
+        <v>0.964660601551828</v>
       </c>
       <c r="E15">
         <v>0.9944618571817411</v>
@@ -1055,13 +1055,13 @@
         <v>0.9994440692609421</v>
       </c>
       <c r="J15">
-        <v>0.9646606015518283</v>
+        <v>0.964660601551828</v>
       </c>
       <c r="K15">
-        <v>0.9795612293667847</v>
+        <v>0.9795612293667846</v>
       </c>
       <c r="L15">
-        <v>0.9967439034252417</v>
+        <v>0.9967439034252414</v>
       </c>
       <c r="M15">
         <v>0.9902917547120765</v>

--- a/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4189879999999998</v>
+        <v>1.227435064709477</v>
       </c>
       <c r="D10">
-        <v>1.752891999999999</v>
+        <v>1.222548923474337</v>
       </c>
       <c r="E10">
-        <v>1.122363999999999</v>
+        <v>0.8672951964755753</v>
       </c>
       <c r="F10">
-        <v>0.4189879999999998</v>
+        <v>1.227435064709477</v>
       </c>
       <c r="G10">
-        <v>1.069479999999999</v>
+        <v>1.00875899065177</v>
       </c>
       <c r="H10">
-        <v>1.644351999999996</v>
+        <v>0.936755875710869</v>
       </c>
       <c r="I10">
-        <v>0.9244519999999995</v>
+        <v>0.9543713561677337</v>
       </c>
       <c r="J10">
-        <v>1.752891999999999</v>
+        <v>1.222548923474337</v>
       </c>
       <c r="K10">
-        <v>1.437627999999999</v>
+        <v>1.044922059974956</v>
       </c>
       <c r="L10">
-        <v>0.9283079999999995</v>
+        <v>1.136178562342217</v>
       </c>
       <c r="M10">
-        <v>1.155421333333332</v>
+        <v>1.036194234531627</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.24</v>
+        <v>0.7721836341916796</v>
       </c>
       <c r="D11">
-        <v>1.857224999999999</v>
+        <v>1.151223998289767</v>
       </c>
       <c r="E11">
-        <v>1.169599999999999</v>
+        <v>1.135283336087678</v>
       </c>
       <c r="F11">
-        <v>0.24</v>
+        <v>0.7721836341916796</v>
       </c>
       <c r="G11">
-        <v>1.1118</v>
+        <v>0.7899491008461358</v>
       </c>
       <c r="H11">
-        <v>1.759724999999999</v>
+        <v>1.79569945241736</v>
       </c>
       <c r="I11">
-        <v>0.938899999999999</v>
+        <v>1.007518913286766</v>
       </c>
       <c r="J11">
-        <v>1.857224999999999</v>
+        <v>1.151223998289767</v>
       </c>
       <c r="K11">
-        <v>1.513412499999999</v>
+        <v>1.143253667188722</v>
       </c>
       <c r="L11">
-        <v>0.8767062499999994</v>
+        <v>0.9577186506902009</v>
       </c>
       <c r="M11">
-        <v>1.179541666666666</v>
+        <v>1.108643072519897</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.5607667692544012</v>
+        <v>0.7712505098242851</v>
       </c>
       <c r="D12">
-        <v>1.490153575424</v>
+        <v>1.154364410358313</v>
       </c>
       <c r="E12">
-        <v>1.092363539865595</v>
+        <v>1.134678545842947</v>
       </c>
       <c r="F12">
-        <v>0.5607667692544012</v>
+        <v>0.7712505098242851</v>
       </c>
       <c r="G12">
-        <v>1.062738152960002</v>
+        <v>0.791571036967911</v>
       </c>
       <c r="H12">
-        <v>1.424629176217602</v>
+        <v>1.793199363676425</v>
       </c>
       <c r="I12">
-        <v>0.9589754114047983</v>
+        <v>1.006678010658369</v>
       </c>
       <c r="J12">
-        <v>1.490153575424</v>
+        <v>1.154364410358313</v>
       </c>
       <c r="K12">
-        <v>1.291258557644797</v>
+        <v>1.14452147810063</v>
       </c>
       <c r="L12">
-        <v>0.9260126634495994</v>
+        <v>0.9578859939624577</v>
       </c>
       <c r="M12">
-        <v>1.098271104187733</v>
+        <v>1.108623646221375</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9903324505683432</v>
+        <v>0.7718587763901014</v>
       </c>
       <c r="D13">
-        <v>0.9954110728507864</v>
+        <v>1.151992011947723</v>
       </c>
       <c r="E13">
-        <v>0.9961506408351531</v>
+        <v>1.13515116134278</v>
       </c>
       <c r="F13">
-        <v>0.9903324505683432</v>
+        <v>0.7718587763901014</v>
       </c>
       <c r="G13">
-        <v>0.9940767061232787</v>
+        <v>0.7903311643303021</v>
       </c>
       <c r="H13">
-        <v>0.9962534337110887</v>
+        <v>1.795043754157411</v>
       </c>
       <c r="I13">
-        <v>0.9938000259503068</v>
+        <v>1.007153079729509</v>
       </c>
       <c r="J13">
-        <v>0.9954110728507864</v>
+        <v>1.151992011947723</v>
       </c>
       <c r="K13">
-        <v>0.9957808568429698</v>
+        <v>1.143571586645252</v>
       </c>
       <c r="L13">
-        <v>0.9930566537056564</v>
+        <v>0.9577151815176765</v>
       </c>
       <c r="M13">
-        <v>0.9943373883398262</v>
+        <v>1.108588324649638</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.047732204375033</v>
+        <v>0.4189879999999998</v>
       </c>
       <c r="D14">
-        <v>0.984891441524995</v>
+        <v>1.752891999999999</v>
       </c>
       <c r="E14">
-        <v>0.9804003648191667</v>
+        <v>1.122363999999999</v>
       </c>
       <c r="F14">
-        <v>1.047732204375033</v>
+        <v>0.4189879999999998</v>
       </c>
       <c r="G14">
-        <v>0.9860557230093119</v>
+        <v>1.069479999999999</v>
       </c>
       <c r="H14">
-        <v>0.9877648374463834</v>
+        <v>1.644351999999996</v>
       </c>
       <c r="I14">
-        <v>0.9913599346732951</v>
+        <v>0.9244519999999995</v>
       </c>
       <c r="J14">
-        <v>0.984891441524995</v>
+        <v>1.752891999999999</v>
       </c>
       <c r="K14">
-        <v>0.9826459031720809</v>
+        <v>1.437627999999999</v>
       </c>
       <c r="L14">
-        <v>1.015189053773557</v>
+        <v>0.9283079999999995</v>
       </c>
       <c r="M14">
-        <v>0.9963674176413643</v>
+        <v>1.155421333333332</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.013926577483699</v>
+        <v>0.24</v>
       </c>
       <c r="D15">
-        <v>0.964660601551828</v>
+        <v>1.857224999999999</v>
       </c>
       <c r="E15">
-        <v>0.9944618571817411</v>
+        <v>1.169599999999999</v>
       </c>
       <c r="F15">
-        <v>1.013926577483699</v>
+        <v>0.24</v>
       </c>
       <c r="G15">
-        <v>0.9783041716963966</v>
+        <v>1.1118</v>
       </c>
       <c r="H15">
-        <v>0.9909532510978528</v>
+        <v>1.759724999999999</v>
       </c>
       <c r="I15">
-        <v>0.9994440692609421</v>
+        <v>0.938899999999999</v>
       </c>
       <c r="J15">
-        <v>0.964660601551828</v>
+        <v>1.857224999999999</v>
       </c>
       <c r="K15">
-        <v>0.9795612293667846</v>
+        <v>1.513412499999999</v>
       </c>
       <c r="L15">
-        <v>0.9967439034252414</v>
+        <v>0.8767062499999994</v>
       </c>
       <c r="M15">
-        <v>0.9902917547120765</v>
+        <v>1.179541666666666</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.227435064709477</v>
+        <v>0.5607667692544012</v>
       </c>
       <c r="D16">
-        <v>1.222548923474337</v>
+        <v>1.490153575424</v>
       </c>
       <c r="E16">
-        <v>0.8672951964755753</v>
+        <v>1.092363539865595</v>
       </c>
       <c r="F16">
-        <v>1.227435064709477</v>
+        <v>0.5607667692544012</v>
       </c>
       <c r="G16">
-        <v>1.00875899065177</v>
+        <v>1.062738152960002</v>
       </c>
       <c r="H16">
-        <v>0.936755875710869</v>
+        <v>1.424629176217602</v>
       </c>
       <c r="I16">
-        <v>0.9543713561677337</v>
+        <v>0.9589754114047983</v>
       </c>
       <c r="J16">
-        <v>1.222548923474337</v>
+        <v>1.490153575424</v>
       </c>
       <c r="K16">
-        <v>1.044922059974956</v>
+        <v>1.291258557644797</v>
       </c>
       <c r="L16">
-        <v>1.136178562342217</v>
+        <v>0.9260126634495994</v>
       </c>
       <c r="M16">
-        <v>1.036194234531627</v>
+        <v>1.098271104187733</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9903324505683432</v>
+      </c>
+      <c r="D17">
+        <v>0.9954110728507864</v>
+      </c>
+      <c r="E17">
+        <v>0.9961506408351531</v>
+      </c>
+      <c r="F17">
+        <v>0.9903324505683432</v>
+      </c>
+      <c r="G17">
+        <v>0.9940767061232787</v>
+      </c>
+      <c r="H17">
+        <v>0.9962534337110887</v>
+      </c>
+      <c r="I17">
+        <v>0.9938000259503068</v>
+      </c>
+      <c r="J17">
+        <v>0.9954110728507864</v>
+      </c>
+      <c r="K17">
+        <v>0.9957808568429698</v>
+      </c>
+      <c r="L17">
+        <v>0.9930566537056564</v>
+      </c>
+      <c r="M17">
+        <v>0.9943373883398262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.047732204375033</v>
+      </c>
+      <c r="D18">
+        <v>0.984891441524995</v>
+      </c>
+      <c r="E18">
+        <v>0.9804003648191667</v>
+      </c>
+      <c r="F18">
+        <v>1.047732204375033</v>
+      </c>
+      <c r="G18">
+        <v>0.9860557230093119</v>
+      </c>
+      <c r="H18">
+        <v>0.9877648374463834</v>
+      </c>
+      <c r="I18">
+        <v>0.9913599346732951</v>
+      </c>
+      <c r="J18">
+        <v>0.984891441524995</v>
+      </c>
+      <c r="K18">
+        <v>0.9826459031720809</v>
+      </c>
+      <c r="L18">
+        <v>1.015189053773557</v>
+      </c>
+      <c r="M18">
+        <v>0.9963674176413643</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.013926577483699</v>
+      </c>
+      <c r="D19">
+        <v>0.9646606015518283</v>
+      </c>
+      <c r="E19">
+        <v>0.9944618571817411</v>
+      </c>
+      <c r="F19">
+        <v>1.013926577483699</v>
+      </c>
+      <c r="G19">
+        <v>0.9783041716963966</v>
+      </c>
+      <c r="H19">
+        <v>0.9909532510978528</v>
+      </c>
+      <c r="I19">
+        <v>0.9994440692609421</v>
+      </c>
+      <c r="J19">
+        <v>0.9646606015518283</v>
+      </c>
+      <c r="K19">
+        <v>0.9795612293667847</v>
+      </c>
+      <c r="L19">
+        <v>0.9967439034252417</v>
+      </c>
+      <c r="M19">
+        <v>0.9902917547120765</v>
       </c>
     </row>
   </sheetData>
